--- a/budget/budget.xlsx
+++ b/budget/budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c69e7c61deb6214/Desktop/pm-s03-g01-project/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBEB9FB5-1BFF-4207-A208-96DECD08AB6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{BBEB9FB5-1BFF-4207-A208-96DECD08AB6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DFD6587B-7371-442F-95E9-B70B106FC968}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B9C2E73D-05FC-441D-B960-8593C6B947A4}"/>
   </bookViews>
@@ -31,6 +31,38 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Pay Per Hour</t>
+  </si>
+  <si>
+    <t>No of Hours Per Week</t>
+  </si>
+  <si>
+    <t>No of Weeks</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Product Owner</t>
+  </si>
+  <si>
+    <t>Scrum Master</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>Hardware and Software</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -64,13 +96,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -81,6 +121,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9D653126-E1B5-4A3E-BCD1-3A50719CABAE}" name="Table1" displayName="Table1" ref="A1:E6" totalsRowCount="1">
+  <autoFilter ref="A1:E5" xr:uid="{877B6E09-73D2-41A0-94D3-CB964FF5E5F7}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{A102BEE9-9300-433A-AA27-17ED541AB209}" name="Title" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{B396668B-FBF5-4182-A7F4-AFD2305A80D5}" name="Pay Per Hour"/>
+    <tableColumn id="3" xr3:uid="{9822BD8F-57E4-4610-A443-CD2FA66AD208}" name="No of Hours Per Week"/>
+    <tableColumn id="4" xr3:uid="{A937FD4D-E975-4F64-9867-0004C32D174A}" name="No of Weeks"/>
+    <tableColumn id="5" xr3:uid="{E113D93B-13A3-4D5A-86EF-D74E7C2B82ED}" name="Total" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
+      <calculatedColumnFormula xml:space="preserve"> (Table1[[#This Row],[Pay Per Hour]]*Table1[[#This Row],[No of Hours Per Week]]*Table1[[#This Row],[No of Weeks]])</calculatedColumnFormula>
+      <totalsRowFormula>SUM(E2:E5)</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,12 +437,156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308D937C-2217-4FA7-BCF4-BACD5F0CC480}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>80</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <f xml:space="preserve"> (Table1[[#This Row],[Pay Per Hour]]*Table1[[#This Row],[No of Hours Per Week]]*Table1[[#This Row],[No of Weeks]])</f>
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>70</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <f xml:space="preserve"> (Table1[[#This Row],[Pay Per Hour]]*Table1[[#This Row],[No of Hours Per Week]]*Table1[[#This Row],[No of Weeks]])</f>
+        <v>19600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>60</v>
+      </c>
+      <c r="C4">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <f xml:space="preserve"> (Table1[[#This Row],[Pay Per Hour]]*Table1[[#This Row],[No of Hours Per Week]]*Table1[[#This Row],[No of Weeks]])</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <f xml:space="preserve"> (Table1[[#This Row],[Pay Per Hour]]*Table1[[#This Row],[No of Hours Per Week]]*Table1[[#This Row],[No of Weeks]])</f>
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1">
+        <f>SUM(E2:E5)</f>
+        <v>75600</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B380A58B-B5CD-404F-BBAC-1D5BAA8E39C9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B380A58B-B5CD-404F-BBAC-1D5BAA8E39C9}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E2:E6</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/budget/budget.xlsx
+++ b/budget/budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c69e7c61deb6214/Desktop/pm-s03-g01-project/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{BBEB9FB5-1BFF-4207-A208-96DECD08AB6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DFD6587B-7371-442F-95E9-B70B106FC968}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="8_{BBEB9FB5-1BFF-4207-A208-96DECD08AB6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A9F5825F-AE90-40C9-AE83-5D96F555B84E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B9C2E73D-05FC-441D-B960-8593C6B947A4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Title</t>
   </si>
@@ -61,15 +61,25 @@
   </si>
   <si>
     <t>Hardware and Software</t>
+  </si>
+  <si>
+    <t>Project Budget</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -96,9 +106,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -124,8 +135,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9D653126-E1B5-4A3E-BCD1-3A50719CABAE}" name="Table1" displayName="Table1" ref="A1:E6" totalsRowCount="1">
-  <autoFilter ref="A1:E5" xr:uid="{877B6E09-73D2-41A0-94D3-CB964FF5E5F7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9D653126-E1B5-4A3E-BCD1-3A50719CABAE}" name="Table1" displayName="Table1" ref="A4:E9" totalsRowCount="1">
+  <autoFilter ref="A4:E8" xr:uid="{877B6E09-73D2-41A0-94D3-CB964FF5E5F7}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{A102BEE9-9300-433A-AA27-17ED541AB209}" name="Title" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{B396668B-FBF5-4182-A7F4-AFD2305A80D5}" name="Pay Per Hour"/>
@@ -133,10 +144,10 @@
     <tableColumn id="4" xr3:uid="{A937FD4D-E975-4F64-9867-0004C32D174A}" name="No of Weeks"/>
     <tableColumn id="5" xr3:uid="{E113D93B-13A3-4D5A-86EF-D74E7C2B82ED}" name="Total" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula xml:space="preserve"> (Table1[[#This Row],[Pay Per Hour]]*Table1[[#This Row],[No of Hours Per Week]]*Table1[[#This Row],[No of Weeks]])</calculatedColumnFormula>
-      <totalsRowFormula>SUM(E2:E5)</totalsRowFormula>
+      <totalsRowFormula>SUM(E5:E8)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -437,101 +448,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308D937C-2217-4FA7-BCF4-BACD5F0CC480}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.44140625" customWidth="1"/>
     <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>80</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>14</v>
-      </c>
-      <c r="E2">
-        <f xml:space="preserve"> (Table1[[#This Row],[Pay Per Hour]]*Table1[[#This Row],[No of Hours Per Week]]*Table1[[#This Row],[No of Weeks]])</f>
-        <v>11200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>70</v>
-      </c>
-      <c r="C3">
-        <v>20</v>
-      </c>
-      <c r="D3">
-        <v>14</v>
-      </c>
-      <c r="E3">
-        <f xml:space="preserve"> (Table1[[#This Row],[Pay Per Hour]]*Table1[[#This Row],[No of Hours Per Week]]*Table1[[#This Row],[No of Weeks]])</f>
-        <v>19600</v>
+    <row r="1" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C1" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>60</v>
-      </c>
-      <c r="C4">
-        <v>40</v>
-      </c>
-      <c r="D4">
-        <v>14</v>
-      </c>
-      <c r="E4">
-        <f xml:space="preserve"> (Table1[[#This Row],[Pay Per Hour]]*Table1[[#This Row],[No of Hours Per Week]]*Table1[[#This Row],[No of Weeks]])</f>
-        <v>33600</v>
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C5">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>14</v>
@@ -543,50 +505,72 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>70</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <f xml:space="preserve"> (Table1[[#This Row],[Pay Per Hour]]*Table1[[#This Row],[No of Hours Per Week]]*Table1[[#This Row],[No of Weeks]])</f>
+        <v>19600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>60</v>
+      </c>
+      <c r="C7">
+        <v>40</v>
+      </c>
+      <c r="D7">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <f xml:space="preserve"> (Table1[[#This Row],[Pay Per Hour]]*Table1[[#This Row],[No of Hours Per Week]]*Table1[[#This Row],[No of Weeks]])</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <f xml:space="preserve"> (Table1[[#This Row],[Pay Per Hour]]*Table1[[#This Row],[No of Hours Per Week]]*Table1[[#This Row],[No of Weeks]])</f>
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="1">
-        <f>SUM(E2:E5)</f>
+      <c r="E9" s="1">
+        <f>SUM(E5:E8)</f>
         <v>75600</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E6">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B380A58B-B5CD-404F-BBAC-1D5BAA8E39C9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B380A58B-B5CD-404F-BBAC-1D5BAA8E39C9}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E2:E6</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/budget/budget.xlsx
+++ b/budget/budget.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c69e7c61deb6214/Desktop/pm-s03-g01-project/budget/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s542407\Desktop\local-repo\pm-s03-g01-project\budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="8_{BBEB9FB5-1BFF-4207-A208-96DECD08AB6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A9F5825F-AE90-40C9-AE83-5D96F555B84E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AA5394-D7BC-4FBA-826B-63D29D5B8551}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B9C2E73D-05FC-441D-B960-8593C6B947A4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B9C2E73D-05FC-441D-B960-8593C6B947A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Title</t>
   </si>
@@ -64,6 +63,9 @@
   </si>
   <si>
     <t>Project Budget</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -448,27 +450,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308D937C-2217-4FA7-BCF4-BACD5F0CC480}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="5" max="5" width="7.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -485,7 +487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -503,7 +505,7 @@
         <v>11200</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -521,7 +523,7 @@
         <v>19600</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -539,7 +541,7 @@
         <v>33600</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -557,13 +559,18 @@
         <v>11200</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="1">
         <f>SUM(E5:E8)</f>
         <v>75600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/budget/budget.xlsx
+++ b/budget/budget.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s542407\Desktop\local-repo\pm-s03-g01-project\budget\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c69e7c61deb6214/Desktop/pm-s03-g01-project/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AA5394-D7BC-4FBA-826B-63D29D5B8551}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{83AA5394-D7BC-4FBA-826B-63D29D5B8551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19E0B90D-6190-4C56-8659-02C9780DDC7D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B9C2E73D-05FC-441D-B960-8593C6B947A4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B9C2E73D-05FC-441D-B960-8593C6B947A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Suggestion1" sheetId="2" r:id="rId2"/>
+    <sheet name="Suggestion2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="8" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>Title</t>
   </si>
@@ -59,20 +64,60 @@
     <t>Developer</t>
   </si>
   <si>
-    <t>Hardware and Software</t>
-  </si>
-  <si>
     <t>Project Budget</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>Number of Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cost per Unit </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sub Total </t>
+  </si>
+  <si>
+    <t>Systems</t>
+  </si>
+  <si>
+    <t>Servers</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Total for Equipment</t>
+  </si>
+  <si>
+    <t>Budget for Office and Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum of  Sub Total </t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of Number of Units</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,16 +132,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -104,16 +176,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Accent1" xfId="2" builtinId="29"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -136,9 +237,3893 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>'Number of Units' by 'Equipment'</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Number of Units</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$13:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Systems</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Servers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Software</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> Total for Equipment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$13:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D897-4D7F-A71E-5C225AC70B88}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="33"/>
+        <c:overlap val="-30"/>
+        <c:axId val="1704130175"/>
+        <c:axId val="1704132255"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1704130175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Equipment</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1704132255"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1704132255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Units</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1704130175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[budget.xlsx]Suggestion2!PivotTable2</c:name>
+    <c:fmtId val="2"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>'Equipment': </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:srgbClr val="DD5A13"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Systems</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> accounts for the majority of 'Number of Units'.</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11772900262467191"/>
+          <c:y val="8.3333333333333329E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="D2D2D2"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="ED7331"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="D2D2D2"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="ED7331"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="D2D2D2"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="D2D2D2"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="D2D2D2"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="D2D2D2"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="D2D2D2"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="ED7331"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="D2D2D2"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="D2D2D2"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="D2D2D2"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="D2D2D2"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Suggestion2!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="D2D2D2"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ED7331"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-E634-4EBC-86C4-49C72A07AA6D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="D2D2D2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-E634-4EBC-86C4-49C72A07AA6D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="D2D2D2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-E634-4EBC-86C4-49C72A07AA6D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="D2D2D2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-E634-4EBC-86C4-49C72A07AA6D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="D2D2D2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-E634-4EBC-86C4-49C72A07AA6D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Suggestion2!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Systems</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Software</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Servers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(blank)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> Total for Equipment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Suggestion2!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-E634-4EBC-86C4-49C72A07AA6D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="50"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[budget.xlsx]Suggestion1!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>'Equipment': </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:srgbClr val="DD5A13"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Total for Equipment</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> has noticeably higher 'Sub Total'.</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="D2D2D2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="ED7331"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Suggestion1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="D2D2D2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ED7331"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-A6F4-46D0-B9A1-1ACA6626E957}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Suggestion1!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v> Total for Equipment</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Systems</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Servers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Software</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(blank)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Suggestion1!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>144800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89850</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9950</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A6F4-46D0-B9A1-1ACA6626E957}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="33"/>
+        <c:overlap val="-30"/>
+        <c:axId val="1108266335"/>
+        <c:axId val="1108267167"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1108266335"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Equipment</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1108267167"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1108267167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sub Total</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1108266335"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+          <c:dispUnitsLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1" descr="Chart type: Clustered Column. 'Number of Units' by 'Equipment'&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55212B5C-AE72-4A54-A74D-4E3FE712B255}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2" descr="Chart type: Doughnut. 'Equipment': Systems accounts for the majority of 'Number of Units'.&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57DCAB95-714E-4CF5-8F5E-DE496ADE2568}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1" descr="Chart type: Clustered Bar. 'Equipment': Total for Equipment has noticeably higher 'Sub Total'.&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F808A6E-1B31-4A92-AC19-9C164FB5362A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="giridhar 196" refreshedDate="44348.984562500002" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="5" xr:uid="{68C0EAC0-6508-47C0-8EF6-5CAEFF0058D6}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A12:D17" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Equipment" numFmtId="0">
+      <sharedItems containsBlank="1" count="5">
+        <s v="Systems"/>
+        <s v="Servers"/>
+        <s v="Software"/>
+        <m/>
+        <s v=" Total for Equipment"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Number of Units" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="30" maxValue="150"/>
+    </cacheField>
+    <cacheField name=" Cost per Unit " numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="199" maxValue="1500"/>
+    </cacheField>
+    <cacheField name=" Sub Total " numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="9950" maxValue="144800"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="5">
+  <r>
+    <x v="0"/>
+    <n v="150"/>
+    <n v="599"/>
+    <n v="89850"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="30"/>
+    <n v="1500"/>
+    <n v="45000"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="50"/>
+    <n v="199"/>
+    <n v="9950"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <n v="144800"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3DC94AD2-ED00-471F-8364-9CD663983C21}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A2:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="6">
+        <item x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of  Sub Total " fld="3" baseField="0" baseItem="0" numFmtId="8"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E51550E9-25CC-41F3-B69D-569F6734A461}" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A2:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="6">
+        <item x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Number of Units" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="14">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9D653126-E1B5-4A3E-BCD1-3A50719CABAE}" name="Table1" displayName="Table1" ref="A4:E9" totalsRowCount="1">
-  <autoFilter ref="A4:E8" xr:uid="{877B6E09-73D2-41A0-94D3-CB964FF5E5F7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9D653126-E1B5-4A3E-BCD1-3A50719CABAE}" name="Table1" displayName="Table1" ref="A4:E8" totalsRowCount="1">
+  <autoFilter ref="A4:E7" xr:uid="{877B6E09-73D2-41A0-94D3-CB964FF5E5F7}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{A102BEE9-9300-433A-AA27-17ED541AB209}" name="Title" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{B396668B-FBF5-4182-A7F4-AFD2305A80D5}" name="Pay Per Hour"/>
@@ -146,7 +4131,7 @@
     <tableColumn id="4" xr3:uid="{A937FD4D-E975-4F64-9867-0004C32D174A}" name="No of Weeks"/>
     <tableColumn id="5" xr3:uid="{E113D93B-13A3-4D5A-86EF-D74E7C2B82ED}" name="Total" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula xml:space="preserve"> (Table1[[#This Row],[Pay Per Hour]]*Table1[[#This Row],[No of Hours Per Week]]*Table1[[#This Row],[No of Weeks]])</calculatedColumnFormula>
-      <totalsRowFormula>SUM(E5:E8)</totalsRowFormula>
+      <totalsRowFormula>SUM(E5:E7)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -450,27 +4435,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308D937C-2217-4FA7-BCF4-BACD5F0CC480}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="5" max="5" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -487,7 +4473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -505,7 +4491,7 @@
         <v>11200</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -523,7 +4509,7 @@
         <v>19600</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -541,43 +4527,244 @@
         <v>33600</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>20</v>
-      </c>
-      <c r="C8">
-        <v>40</v>
-      </c>
-      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <f>SUM(E5:E7)</f>
+        <v>64400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6">
+        <v>150</v>
+      </c>
+      <c r="C13" s="7">
+        <v>599</v>
+      </c>
+      <c r="D13" s="7">
+        <v>89850</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E8">
-        <f xml:space="preserve"> (Table1[[#This Row],[Pay Per Hour]]*Table1[[#This Row],[No of Hours Per Week]]*Table1[[#This Row],[No of Weeks]])</f>
-        <v>11200</v>
+      <c r="B14" s="6">
+        <v>30</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1500</v>
+      </c>
+      <c r="D14" s="7">
+        <v>45000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="1">
-        <f>SUM(E5:E8)</f>
-        <v>75600</v>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="6">
+        <v>50</v>
+      </c>
+      <c r="C15" s="7">
+        <v>199</v>
+      </c>
+      <c r="D15" s="7">
+        <v>9950</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>10</v>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="8">
+        <v>144800</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144C3276-F766-49B9-B253-5D7F347C1D57}">
+  <dimension ref="A2:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3">
+        <v>144800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3">
+        <v>89850</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3">
+        <v>9950</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3">
+        <v>289600</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1240882C-0028-4791-9569-0B00CD2B7394}">
+  <dimension ref="A2:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1">
+        <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>